--- a/Sujeto_1/Carbohidrates.xlsx
+++ b/Sujeto_1/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2162335-AF7E-9C4E-9408-95A36C9F99DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCED2C-DAFC-1F4D-98D0-BCE64CC1948F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
   </si>
 </sst>
 </file>
@@ -433,11 +433,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/Sujeto_1/Carbohidrates.xlsx
+++ b/Sujeto_1/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCED2C-DAFC-1F4D-98D0-BCE64CC1948F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D68479-C419-EC42-BE4C-61AA8B056550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Value (g)</t>
+  </si>
+  <si>
+    <t>102.8</t>
+  </si>
+  <si>
+    <t>54.9</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>109.8</t>
+  </si>
+  <si>
+    <t>72.55</t>
+  </si>
+  <si>
+    <t>107.03</t>
+  </si>
+  <si>
+    <t>101.2</t>
+  </si>
+  <si>
+    <t>38.09</t>
+  </si>
+  <si>
+    <t>62.28</t>
+  </si>
+  <si>
+    <t>49.17</t>
+  </si>
+  <si>
+    <t>78.42</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>35.43</t>
+  </si>
+  <si>
+    <t>21.52</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>25.85</t>
+  </si>
+  <si>
+    <t>47.44</t>
   </si>
 </sst>
 </file>
@@ -87,12 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +486,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -455,232 +507,232 @@
       <c r="A2" s="2">
         <v>44175.944444444453</v>
       </c>
-      <c r="B2">
-        <v>102.8</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44176.481249999997</v>
       </c>
-      <c r="B3">
-        <v>54.9</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44176.549305555563</v>
       </c>
-      <c r="B4">
-        <v>13.3</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44176.993055555547</v>
       </c>
-      <c r="B5">
-        <v>109.8</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44177.4375</v>
       </c>
-      <c r="B6">
-        <v>72.550000000000011</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44177.541666666657</v>
       </c>
-      <c r="B7">
-        <v>107.03</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44177.769444444442</v>
       </c>
-      <c r="B8">
-        <v>39.375</v>
+      <c r="B8" s="3">
+        <v>39375</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44177.914583333331</v>
       </c>
-      <c r="B9">
-        <v>101.2</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44177.977083333331</v>
       </c>
-      <c r="B10">
-        <v>38.090000000000003</v>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44178.520833333343</v>
       </c>
-      <c r="B11">
-        <v>62.279999999999987</v>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44178.597222222219</v>
       </c>
-      <c r="B12">
-        <v>49.17</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44178.910416666673</v>
       </c>
-      <c r="B13">
-        <v>78.42</v>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44179.541666666657</v>
       </c>
-      <c r="B14">
-        <v>36.880000000000003</v>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44179.729166666657</v>
       </c>
-      <c r="B15">
-        <v>35.43</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44179.909722222219</v>
       </c>
-      <c r="B16">
-        <v>21.52</v>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44180.430555555547</v>
       </c>
-      <c r="B17">
-        <v>72.550000000000011</v>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44180.491666666669</v>
       </c>
-      <c r="B18">
-        <v>20.305</v>
+      <c r="B18" s="3">
+        <v>20305</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44180.638888888891</v>
       </c>
-      <c r="B19">
-        <v>5.83</v>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44180.75</v>
       </c>
-      <c r="B20">
-        <v>30.875</v>
+      <c r="B20" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44180.791666666657</v>
       </c>
-      <c r="B21">
-        <v>30.875</v>
+      <c r="B21" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44180.83333321759</v>
       </c>
-      <c r="B22">
-        <v>30.875</v>
+      <c r="B22" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44180.874999826388</v>
       </c>
-      <c r="B23">
-        <v>30.875</v>
+      <c r="B23" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44180.916666435187</v>
       </c>
-      <c r="B24">
-        <v>30.875</v>
+      <c r="B24" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44180.958333043978</v>
       </c>
-      <c r="B25">
-        <v>30.875</v>
+      <c r="B25" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44180.999999652777</v>
       </c>
-      <c r="B26">
-        <v>30.875</v>
+      <c r="B26" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44181.041666261583</v>
       </c>
-      <c r="B27">
-        <v>30.875</v>
+      <c r="B27" s="3">
+        <v>30875</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44181.458333333343</v>
       </c>
-      <c r="B28">
-        <v>72.550000000000011</v>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44181.6875</v>
       </c>
-      <c r="B29">
-        <v>25.85</v>
+      <c r="B29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44181.916666666657</v>
       </c>
-      <c r="B30">
-        <v>47.44</v>
+      <c r="B30" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_1/Carbohidrates.xlsx
+++ b/Sujeto_1/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D68479-C419-EC42-BE4C-61AA8B056550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC885F-F4AE-8647-8383-83D60A899FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
     <t>107.03</t>
   </si>
   <si>
+    <t>39.38</t>
+  </si>
+  <si>
     <t>101.2</t>
   </si>
   <si>
@@ -70,7 +73,13 @@
     <t>21.52</t>
   </si>
   <si>
+    <t>20.3</t>
+  </si>
+  <si>
     <t>5.83</t>
+  </si>
+  <si>
+    <t>30.88</t>
   </si>
   <si>
     <t>25.85</t>
@@ -138,13 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,14 +493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,8 +560,8 @@
       <c r="A8" s="2">
         <v>44177.769444444442</v>
       </c>
-      <c r="B8" s="3">
-        <v>39375</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -564,7 +569,7 @@
         <v>44177.914583333331</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -572,7 +577,7 @@
         <v>44177.977083333331</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +585,7 @@
         <v>44178.520833333343</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +593,7 @@
         <v>44178.597222222219</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -596,7 +601,7 @@
         <v>44178.910416666673</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +609,7 @@
         <v>44179.541666666657</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,7 +617,7 @@
         <v>44179.729166666657</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +625,7 @@
         <v>44179.909722222219</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,8 +640,8 @@
       <c r="A18" s="2">
         <v>44180.491666666669</v>
       </c>
-      <c r="B18" s="3">
-        <v>20305</v>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,71 +649,71 @@
         <v>44180.638888888891</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44180.75</v>
       </c>
-      <c r="B20" s="3">
-        <v>30875</v>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44180.791666666657</v>
       </c>
-      <c r="B21" s="3">
-        <v>30875</v>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44180.83333321759</v>
       </c>
-      <c r="B22" s="3">
-        <v>30875</v>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44180.874999826388</v>
       </c>
-      <c r="B23" s="3">
-        <v>30875</v>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44180.916666435187</v>
       </c>
-      <c r="B24" s="3">
-        <v>30875</v>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44180.958333043978</v>
       </c>
-      <c r="B25" s="3">
-        <v>30875</v>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44180.999999652777</v>
       </c>
-      <c r="B26" s="3">
-        <v>30875</v>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44181.041666261583</v>
       </c>
-      <c r="B27" s="3">
-        <v>30875</v>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -724,7 +729,7 @@
         <v>44181.6875</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -732,7 +737,7 @@
         <v>44181.916666666657</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
